--- a/Databases.xlsx
+++ b/Databases.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtj599zzzbro\Documents\GitHub\RootMC-Web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>User</t>
   </si>
@@ -303,6 +301,21 @@
   </si>
   <si>
     <t>example@example.com</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>Uid2</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>This is a test message to you!</t>
   </si>
 </sst>
 </file>
@@ -412,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,27 +645,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -722,7 +735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -757,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -786,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -815,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -844,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -873,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -902,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -925,7 +938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -948,7 +961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -971,7 +984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1103,7 +1116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24">
         <v>2</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1168,7 +1181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26">
         <v>4</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1213,6 +1226,51 @@
       </c>
       <c r="D30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1220,5 +1278,10 @@
     <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Databases.xlsx
+++ b/Databases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>User</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>This is a test message to you!</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -645,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1245,7 +1251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>50</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="1:5">
       <c r="B34">
         <v>1</v>
       </c>
@@ -1271,6 +1277,31 @@
       </c>
       <c r="E34" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Databases.xlsx
+++ b/Databases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7900"/>
+    <workbookView minimized="1" xWindow="0" yWindow="20" windowWidth="20500" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>User</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Link_Path</t>
+  </si>
+  <si>
+    <t>links</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1304,6 +1310,31 @@
         <v>32</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
